--- a/amplify/data/develop/from/editor_background_original.xlsx
+++ b/amplify/data/develop/from/editor_background_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11500"/>
+    <workbookView windowWidth="28000" windowHeight="11380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="download设计图&amp;thumbnail缩略图" sheetId="3" r:id="rId1"/>
@@ -493,16 +493,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -510,7 +510,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -530,7 +530,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -538,42 +538,125 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -581,84 +664,38 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -666,44 +703,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -747,7 +747,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +819,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,121 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,16 +945,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,15 +973,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,16 +1004,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,148 +1046,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,55 +1235,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1554,25 +1554,25 @@
   <sheetPr/>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A82" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="33.8333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33.8308823529412" style="8" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" style="9" customWidth="1"/>
-    <col min="4" max="5" width="10.8333333333333" style="9"/>
-    <col min="6" max="6" width="19.1666666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="79.8333333333333" style="9" customWidth="1"/>
-    <col min="8" max="8" width="78.6666666666667" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="12"/>
-    <col min="10" max="16373" width="10.8333333333333" style="9"/>
+    <col min="3" max="3" width="12.3308823529412" style="9" customWidth="1"/>
+    <col min="4" max="5" width="10.8308823529412" style="9"/>
+    <col min="6" max="6" width="19.1691176470588" style="9" customWidth="1"/>
+    <col min="7" max="7" width="79.8308823529412" style="9" customWidth="1"/>
+    <col min="8" max="8" width="78.6691176470588" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.8308823529412" style="12"/>
+    <col min="10" max="16373" width="10.8308823529412" style="9"/>
     <col min="16374" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="12.4" spans="1:9">
+    <row r="1" s="11" customFormat="1" ht="14" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4219,11 +4219,11 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.1666666666667" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.1691176470588" defaultRowHeight="14.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4250,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:6">
+    <row r="2" ht="16.8" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.2" spans="1:6">
+    <row r="3" ht="16.8" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:6">
+    <row r="4" ht="16.8" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>88</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.2" spans="1:6">
+    <row r="5" ht="16.8" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>89</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.2" spans="1:6">
+    <row r="6" ht="16.8" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -4355,7 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:6">
+    <row r="7" ht="16.8" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>91</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="1:6">
+    <row r="8" ht="16.8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="1:6">
+    <row r="9" ht="16.8" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15.2" spans="1:6">
+    <row r="10" ht="16.8" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>94</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -4439,7 +4439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15.2" spans="1:6">
+    <row r="11" ht="16.8" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>95</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -4476,9 +4476,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="60.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="60.6691176470588" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:1">
@@ -4501,7 +4501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" ht="14" spans="1:1">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>100</v>
       </c>

--- a/amplify/data/develop/from/editor_background_original.xlsx
+++ b/amplify/data/develop/from/editor_background_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11380" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="download设计图&amp;thumbnail缩略图" sheetId="3" r:id="rId1"/>
@@ -493,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -565,7 +565,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +589,53 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,10 +655,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,45 +668,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,24 +686,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,22 +703,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,7 +747,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,13 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,25 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +867,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,61 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,6 +944,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -959,20 +983,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,26 +1015,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,165 +1041,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4220,7 +4220,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.1691176470588" defaultRowHeight="14.8" outlineLevelCol="5"/>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>

--- a/amplify/data/develop/from/editor_background_original.xlsx
+++ b/amplify/data/develop/from/editor_background_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11680"/>
   </bookViews>
   <sheets>
     <sheet name="download设计图&amp;thumbnail缩略图" sheetId="3" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>opId</t>
   </si>
@@ -339,6 +339,39 @@
     <t>plants_2205_12.jpg</t>
   </si>
   <si>
+    <t>holiday_2210_1.png</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>holiday_2210_2.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_3.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_4.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_5.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_6.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_7.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_8.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_9.png</t>
+  </si>
+  <si>
+    <t>holiday_2210_10.png</t>
+  </si>
+  <si>
     <t>vipState</t>
   </si>
   <si>
@@ -355,9 +388,6 @@
   </si>
   <si>
     <t>gradient</t>
-  </si>
-  <si>
-    <t>holiday</t>
   </si>
   <si>
     <t>dreamy</t>
@@ -493,16 +523,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -510,7 +540,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -530,7 +560,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -538,35 +568,127 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -574,7 +696,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -582,128 +704,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -747,13 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,25 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,19 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +831,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,61 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,17 +974,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +988,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,21 +1012,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,15 +1033,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1033,11 +1042,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,148 +1076,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,55 +1265,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1554,25 +1584,25 @@
   <sheetPr/>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="33.8308823529412" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33.8333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.3308823529412" style="9" customWidth="1"/>
-    <col min="4" max="5" width="10.8308823529412" style="9"/>
-    <col min="6" max="6" width="19.1691176470588" style="9" customWidth="1"/>
-    <col min="7" max="7" width="79.8308823529412" style="9" customWidth="1"/>
-    <col min="8" max="8" width="78.6691176470588" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.8308823529412" style="12"/>
-    <col min="10" max="16373" width="10.8308823529412" style="9"/>
+    <col min="3" max="3" width="12.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="5" width="10.8333333333333" style="9"/>
+    <col min="6" max="6" width="19.1666666666667" style="9" customWidth="1"/>
+    <col min="7" max="7" width="79.8333333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="78.6666666666667" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.8333333333333" style="12"/>
+    <col min="10" max="16373" width="10.8333333333333" style="9"/>
     <col min="16374" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="14" spans="1:9">
+    <row r="1" s="11" customFormat="1" ht="12.4" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2494,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -2528,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -2562,7 +2592,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -2596,10 +2626,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="9">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2630,10 +2660,10 @@
         <v>39</v>
       </c>
       <c r="C32" s="9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2664,10 +2694,10 @@
         <v>40</v>
       </c>
       <c r="C33" s="9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2698,7 +2728,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
@@ -2732,7 +2762,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="9">
         <v>1</v>
@@ -2766,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
@@ -2800,10 +2830,10 @@
         <v>44</v>
       </c>
       <c r="C37" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2834,10 +2864,10 @@
         <v>45</v>
       </c>
       <c r="C38" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3313,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3347,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3381,7 +3411,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3786,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="C66" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
         <v>1</v>
@@ -3820,7 +3850,7 @@
         <v>74</v>
       </c>
       <c r="C67" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
@@ -3854,10 +3884,10 @@
         <v>75</v>
       </c>
       <c r="C68" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="12"/>
@@ -3888,7 +3918,7 @@
         <v>76</v>
       </c>
       <c r="C69" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69" s="9">
         <v>1</v>
@@ -3922,10 +3952,10 @@
         <v>77</v>
       </c>
       <c r="C70" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="12"/>
@@ -3956,7 +3986,7 @@
         <v>78</v>
       </c>
       <c r="C71" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" s="9">
         <v>1</v>
@@ -3990,7 +4020,7 @@
         <v>79</v>
       </c>
       <c r="C72" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" s="9">
         <v>1</v>
@@ -4024,7 +4054,7 @@
         <v>80</v>
       </c>
       <c r="C73" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73" s="9">
         <v>1</v>
@@ -4061,7 +4091,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="shared" si="12"/>
@@ -4149,6 +4179,336 @@
       </c>
       <c r="I76" s="12">
         <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="8" t="str">
+        <f t="shared" ref="A77:A86" si="18">LEFT(B77,LEN(B77)-4)</f>
+        <v>holiday_2210_1</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9" t="str">
+        <f t="shared" ref="E77:E86" si="19">RIGHT(B77,3)</f>
+        <v>png</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="9" t="str">
+        <f t="shared" ref="G77:G86" si="20">"背景图片"&amp;"/"&amp;"download"&amp;"/"&amp;F77&amp;"/"&amp;B77</f>
+        <v>背景图片/download/holiday/holiday_2210_1.png</v>
+      </c>
+      <c r="H77" s="9" t="str">
+        <f t="shared" ref="H77:H86" si="21">"背景图片"&amp;"/"&amp;"thumbnail"&amp;"/"&amp;F77&amp;"/"&amp;B77</f>
+        <v>背景图片/thumbnail/holiday/holiday_2210_1.png</v>
+      </c>
+      <c r="I77" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_2</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="9">
+        <v>6</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_2.png</v>
+      </c>
+      <c r="H78" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_2.png</v>
+      </c>
+      <c r="I78" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_3</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="9">
+        <v>7</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_3.png</v>
+      </c>
+      <c r="H79" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_3.png</v>
+      </c>
+      <c r="I79" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_4</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="9">
+        <v>11</v>
+      </c>
+      <c r="D80" s="9">
+        <v>1</v>
+      </c>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_4.png</v>
+      </c>
+      <c r="H80" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_4.png</v>
+      </c>
+      <c r="I80" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_5</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="9">
+        <v>12</v>
+      </c>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_5.png</v>
+      </c>
+      <c r="H81" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_5.png</v>
+      </c>
+      <c r="I81" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_6</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="9">
+        <v>13</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_6.png</v>
+      </c>
+      <c r="H82" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_6.png</v>
+      </c>
+      <c r="I82" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_7</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_7.png</v>
+      </c>
+      <c r="H83" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_7.png</v>
+      </c>
+      <c r="I83" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_8</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="9">
+        <v>3</v>
+      </c>
+      <c r="D84" s="9">
+        <v>1</v>
+      </c>
+      <c r="E84" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_8.png</v>
+      </c>
+      <c r="H84" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_8.png</v>
+      </c>
+      <c r="I84" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_9</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="9">
+        <v>4</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_9.png</v>
+      </c>
+      <c r="H85" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_9.png</v>
+      </c>
+      <c r="I85" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v>holiday_2210_10</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="9">
+        <v>5</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>png</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>背景图片/download/holiday/holiday_2210_10.png</v>
+      </c>
+      <c r="H86" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>背景图片/thumbnail/holiday/holiday_2210_10.png</v>
+      </c>
+      <c r="I86" s="12">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="2:2">
@@ -4219,11 +4579,11 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.1691176470588" defaultRowHeight="14.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.1666666666667" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4235,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -4244,21 +4604,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:6">
+    <row r="2" ht="15.2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -4271,15 +4631,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:6">
+    <row r="3" ht="15.2" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -4292,15 +4652,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:6">
+    <row r="4" ht="15.2" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -4313,9 +4673,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:6">
+    <row r="5" ht="15.2" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -4334,15 +4694,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:6">
+    <row r="6" ht="15.2" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -4355,15 +4715,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:6">
+    <row r="7" ht="15.2" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -4376,15 +4736,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:6">
+    <row r="8" ht="15.2" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -4397,15 +4757,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="1:6">
+    <row r="9" ht="15.2" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -4418,15 +4778,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:6">
+    <row r="10" ht="15.2" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -4439,15 +4799,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="1:6">
+    <row r="11" ht="15.2" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
       </c>
       <c r="C11" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -4473,37 +4833,37 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="60.6691176470588" customWidth="1"/>
+    <col min="1" max="1" width="60.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
